--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_25_36.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_25_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3269559.586172844</v>
+        <v>3267014.993478561</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -668,55 +668,55 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>39.70122005611995</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>187.5255871663201</v>
       </c>
       <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>77.08171901666373</v>
+      </c>
+      <c r="S2" t="n">
+        <v>158.7758131900531</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>109.9645463939866</v>
+      </c>
+      <c r="V2" t="n">
         <v>187.5255871663201</v>
-      </c>
-      <c r="I2" t="n">
-        <v>125.4713171199747</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>187.5255871663201</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -741,13 +741,13 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -756,7 +756,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>58.90455890409147</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,22 +783,22 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>45.97688236922421</v>
+        <v>72.43289562846316</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>107.5567297256359</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -829,7 +829,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>52.21594625443465</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -856,7 +856,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>18.10760906709382</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>34.10833718734084</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -896,19 +896,19 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>164.7009304226888</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>412.2518847340494</v>
+        <v>12.25188473404938</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -944,16 +944,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>139.4987618372554</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1015846853496</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>96.95193424908268</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -972,25 +972,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>135.7111670171797</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>96.4703783524613</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1020,28 +1020,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>44.33060630074789</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>141.3629830843606</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>193.5852120974427</v>
       </c>
       <c r="U6" t="n">
         <v>225.8339906239991</v>
       </c>
       <c r="V6" t="n">
-        <v>174.0472015085123</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>44.59547412467142</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1108,19 +1108,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2443834913144</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>45.66399984503874</v>
       </c>
       <c r="W7" t="n">
-        <v>113.3237299842586</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>103.0982425648377</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1142,10 +1142,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>11.87073484362677</v>
+        <v>411.8707348436268</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1178,16 +1178,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>208.0722578696039</v>
       </c>
       <c r="U8" t="n">
-        <v>200.4727983501231</v>
+        <v>251.0710926941158</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1209,10 +1209,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
@@ -1221,13 +1221,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>135.5072338470353</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>94.50081326185514</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1257,13 +1257,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.27697994470635</v>
+        <v>31.66886087721431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>50.14774867940488</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>192.7632183107638</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>55.24834863187009</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1333,10 +1333,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>22.59469128425553</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>108.0728512656386</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1345,16 +1345,16 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2350578157167</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>220.013305673653</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1373,7 +1373,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206837</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1436,7 +1436,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560527</v>
       </c>
     </row>
     <row r="12">
@@ -1528,22 +1528,22 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>41.33703994143007</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856552</v>
@@ -1576,7 +1576,7 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>89.43437620021363</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1619,10 +1619,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1771,16 +1771,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>0.8253826161913385</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1813,10 +1813,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>107.4021082756239</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2002,19 +2002,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>103.8784673763408</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>23.10998325717214</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187857</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2132,7 +2132,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2239,13 +2239,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>28.75188085812005</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2254,10 +2254,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2290,7 +2290,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>154.0370966050008</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2482,7 +2482,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2491,7 +2491,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2710,25 +2710,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>133.3722917337063</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2795,7 +2795,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206839</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2843,7 +2843,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2947,25 +2947,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>28.75188085812011</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>36.21070476472222</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -3083,7 +3083,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3190,22 +3190,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>108.9065924712588</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3317,7 +3317,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3424,7 +3424,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -3436,10 +3436,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>94.30373791808189</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3478,10 +3478,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3490,7 +3490,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>140.2695301648957</v>
       </c>
     </row>
     <row r="38">
@@ -3506,7 +3506,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.6830416206816</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3664,19 +3664,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428169</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3712,7 +3712,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>170.9457618790573</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3752,10 +3752,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444128</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3907,16 +3907,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>1.799772605716168</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>9.146142788179411</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3974,7 +3974,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634785</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -3989,7 +3989,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H44" t="n">
         <v>283.1540821444137</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4071,7 +4071,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H45" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4141,10 +4141,10 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>154.8443340724367</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4195,7 +4195,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>560.6825636487954</v>
+        <v>211.367332738994</v>
       </c>
       <c r="C2" t="n">
-        <v>560.6825636487954</v>
+        <v>211.367332738994</v>
       </c>
       <c r="D2" t="n">
-        <v>560.6825636487954</v>
+        <v>211.367332738994</v>
       </c>
       <c r="E2" t="n">
-        <v>560.6825636487954</v>
+        <v>211.367332738994</v>
       </c>
       <c r="F2" t="n">
-        <v>520.5803211678661</v>
+        <v>204.4218319897906</v>
       </c>
       <c r="G2" t="n">
-        <v>331.1605361513812</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="H2" t="n">
-        <v>141.7407511348962</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="I2" t="n">
         <v>15.00204697330561</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03371160678508</v>
+        <v>21.03371160678489</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058969</v>
+        <v>80.81213159058956</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079185</v>
+        <v>191.8743094079187</v>
       </c>
       <c r="M2" t="n">
         <v>347.1218190644757</v>
       </c>
       <c r="N2" t="n">
-        <v>509.4952041123833</v>
+        <v>509.4952041123832</v>
       </c>
       <c r="O2" t="n">
         <v>649.4845259985589</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020271</v>
+        <v>734.4611726020272</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652804</v>
+        <v>750.1023486652805</v>
       </c>
       <c r="R2" t="n">
-        <v>750.1023486652804</v>
+        <v>672.2420264262262</v>
       </c>
       <c r="S2" t="n">
-        <v>750.1023486652804</v>
+        <v>511.8624171433443</v>
       </c>
       <c r="T2" t="n">
-        <v>750.1023486652804</v>
+        <v>511.8624171433443</v>
       </c>
       <c r="U2" t="n">
-        <v>560.6825636487954</v>
+        <v>400.787117755479</v>
       </c>
       <c r="V2" t="n">
-        <v>560.6825636487954</v>
+        <v>211.367332738994</v>
       </c>
       <c r="W2" t="n">
-        <v>560.6825636487954</v>
+        <v>211.367332738994</v>
       </c>
       <c r="X2" t="n">
-        <v>560.6825636487954</v>
+        <v>211.367332738994</v>
       </c>
       <c r="Y2" t="n">
-        <v>560.6825636487954</v>
+        <v>211.367332738994</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>703.6610533428317</v>
+        <v>189.4550762544326</v>
       </c>
       <c r="C3" t="n">
-        <v>529.2080240617047</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="D3" t="n">
-        <v>380.2736144004534</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="E3" t="n">
-        <v>221.0361593949979</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="F3" t="n">
-        <v>74.50160142188285</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="G3" t="n">
-        <v>74.50160142188285</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="H3" t="n">
-        <v>74.50160142188285</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="I3" t="n">
         <v>15.00204697330561</v>
@@ -4410,10 +4410,10 @@
         <v>15.00204697330561</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024222</v>
+        <v>67.13418877024219</v>
       </c>
       <c r="L3" t="n">
-        <v>183.5548280772651</v>
+        <v>183.5548280772652</v>
       </c>
       <c r="M3" t="n">
         <v>338.7690911140247</v>
@@ -4425,34 +4425,34 @@
         <v>649.2101578476354</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017068</v>
+        <v>739.5989987017069</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652804</v>
+        <v>750.1023486652805</v>
       </c>
       <c r="R3" t="n">
-        <v>703.6610533428317</v>
+        <v>676.9378076264288</v>
       </c>
       <c r="S3" t="n">
-        <v>703.6610533428317</v>
+        <v>676.9378076264288</v>
       </c>
       <c r="T3" t="n">
-        <v>703.6610533428317</v>
+        <v>487.5180226099438</v>
       </c>
       <c r="U3" t="n">
-        <v>703.6610533428317</v>
+        <v>298.0982375934589</v>
       </c>
       <c r="V3" t="n">
-        <v>703.6610533428317</v>
+        <v>298.0982375934589</v>
       </c>
       <c r="W3" t="n">
-        <v>703.6610533428317</v>
+        <v>189.4550762544326</v>
       </c>
       <c r="X3" t="n">
-        <v>703.6610533428317</v>
+        <v>189.4550762544326</v>
       </c>
       <c r="Y3" t="n">
-        <v>703.6610533428317</v>
+        <v>189.4550762544326</v>
       </c>
     </row>
     <row r="4">
@@ -4462,19 +4462,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>67.74542702829011</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="C4" t="n">
-        <v>67.74542702829011</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="D4" t="n">
-        <v>67.74542702829011</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="E4" t="n">
-        <v>67.74542702829011</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="F4" t="n">
-        <v>67.74542702829011</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="G4" t="n">
         <v>15.00204697330561</v>
@@ -4504,34 +4504,34 @@
         <v>67.74542702829011</v>
       </c>
       <c r="P4" t="n">
-        <v>67.74542702829011</v>
+        <v>49.45491281910444</v>
       </c>
       <c r="Q4" t="n">
-        <v>67.74542702829011</v>
+        <v>49.45491281910444</v>
       </c>
       <c r="R4" t="n">
-        <v>67.74542702829011</v>
+        <v>49.45491281910444</v>
       </c>
       <c r="S4" t="n">
-        <v>67.74542702829011</v>
+        <v>49.45491281910444</v>
       </c>
       <c r="T4" t="n">
-        <v>67.74542702829011</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="U4" t="n">
-        <v>67.74542702829011</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="V4" t="n">
-        <v>67.74542702829011</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="W4" t="n">
-        <v>67.74542702829011</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="X4" t="n">
-        <v>67.74542702829011</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="Y4" t="n">
-        <v>67.74542702829011</v>
+        <v>15.00204697330561</v>
       </c>
     </row>
     <row r="5">
@@ -4541,40 +4541,40 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>861.9600062922739</v>
+        <v>964.2977256009945</v>
       </c>
       <c r="C5" t="n">
-        <v>861.9600062922739</v>
+        <v>797.9331494164603</v>
       </c>
       <c r="D5" t="n">
-        <v>861.9600062922739</v>
+        <v>439.6674508097099</v>
       </c>
       <c r="E5" t="n">
-        <v>861.9600062922739</v>
+        <v>53.87919821146562</v>
       </c>
       <c r="F5" t="n">
-        <v>450.9741015026663</v>
+        <v>46.93369746226215</v>
       </c>
       <c r="G5" t="n">
-        <v>34.55805631675774</v>
+        <v>34.55805631675772</v>
       </c>
       <c r="H5" t="n">
-        <v>34.55805631675774</v>
+        <v>34.55805631675772</v>
       </c>
       <c r="I5" t="n">
-        <v>34.55805631675774</v>
+        <v>34.55805631675772</v>
       </c>
       <c r="J5" t="n">
         <v>111.6705539017219</v>
       </c>
       <c r="K5" t="n">
-        <v>277.9807166746981</v>
+        <v>277.980716674698</v>
       </c>
       <c r="L5" t="n">
-        <v>521.204941603077</v>
+        <v>521.2049416030768</v>
       </c>
       <c r="M5" t="n">
-        <v>823.5081935709194</v>
+        <v>823.5081935709189</v>
       </c>
       <c r="N5" t="n">
         <v>1135.316836582753</v>
@@ -4586,31 +4586,31 @@
         <v>1621.82224833276</v>
       </c>
       <c r="Q5" t="n">
-        <v>1727.902815837887</v>
+        <v>1727.902815837886</v>
       </c>
       <c r="R5" t="n">
-        <v>1727.902815837887</v>
+        <v>1727.902815837886</v>
       </c>
       <c r="S5" t="n">
-        <v>1586.994975598235</v>
+        <v>1727.902815837886</v>
       </c>
       <c r="T5" t="n">
-        <v>1586.994975598235</v>
+        <v>1727.902815837886</v>
       </c>
       <c r="U5" t="n">
-        <v>1333.357011269599</v>
+        <v>1727.902815837886</v>
       </c>
       <c r="V5" t="n">
-        <v>1235.425764553354</v>
+        <v>1727.902815837886</v>
       </c>
       <c r="W5" t="n">
-        <v>1235.425764553354</v>
+        <v>1727.902815837886</v>
       </c>
       <c r="X5" t="n">
-        <v>861.9600062922739</v>
+        <v>1354.437057576806</v>
       </c>
       <c r="Y5" t="n">
-        <v>861.9600062922739</v>
+        <v>964.2977256009945</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>626.3464658426196</v>
+        <v>132.0028829354055</v>
       </c>
       <c r="C6" t="n">
-        <v>626.3464658426196</v>
+        <v>132.0028829354055</v>
       </c>
       <c r="D6" t="n">
-        <v>477.4120561813684</v>
+        <v>132.0028829354055</v>
       </c>
       <c r="E6" t="n">
-        <v>318.1746011759129</v>
+        <v>132.0028829354055</v>
       </c>
       <c r="F6" t="n">
-        <v>171.6400432027979</v>
+        <v>132.0028829354055</v>
       </c>
       <c r="G6" t="n">
-        <v>34.55805631675774</v>
+        <v>132.0028829354055</v>
       </c>
       <c r="H6" t="n">
-        <v>34.55805631675774</v>
+        <v>34.55805631675772</v>
       </c>
       <c r="I6" t="n">
-        <v>34.55805631675774</v>
+        <v>34.55805631675772</v>
       </c>
       <c r="J6" t="n">
-        <v>61.66788464787554</v>
+        <v>61.66788464787547</v>
       </c>
       <c r="K6" t="n">
-        <v>186.1577239806068</v>
+        <v>186.1577239806067</v>
       </c>
       <c r="L6" t="n">
-        <v>399.8722171189987</v>
+        <v>399.8722171189985</v>
       </c>
       <c r="M6" t="n">
-        <v>668.6238185223514</v>
+        <v>668.623818522351</v>
       </c>
       <c r="N6" t="n">
-        <v>958.8971200352498</v>
+        <v>958.8971200352491</v>
       </c>
       <c r="O6" t="n">
-        <v>1202.220686228321</v>
+        <v>1202.22068622832</v>
       </c>
       <c r="P6" t="n">
-        <v>1378.176233639511</v>
+        <v>1378.17623363951</v>
       </c>
       <c r="Q6" t="n">
-        <v>1445.878660906552</v>
+        <v>1445.878660906551</v>
       </c>
       <c r="R6" t="n">
-        <v>1445.878660906552</v>
+        <v>1401.100270703775</v>
       </c>
       <c r="S6" t="n">
-        <v>1445.878660906552</v>
+        <v>1258.309378699371</v>
       </c>
       <c r="T6" t="n">
-        <v>1445.878660906552</v>
+        <v>1062.768760419126</v>
       </c>
       <c r="U6" t="n">
-        <v>1217.763518862109</v>
+        <v>834.653618374682</v>
       </c>
       <c r="V6" t="n">
-        <v>1041.958264813106</v>
+        <v>599.5015101429392</v>
       </c>
       <c r="W6" t="n">
-        <v>1041.958264813106</v>
+        <v>345.2641534147376</v>
       </c>
       <c r="X6" t="n">
-        <v>834.1067646075735</v>
+        <v>300.2182199554735</v>
       </c>
       <c r="Y6" t="n">
-        <v>626.3464658426196</v>
+        <v>300.2182199554735</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>34.55805631675774</v>
+        <v>34.55805631675772</v>
       </c>
       <c r="C7" t="n">
-        <v>34.55805631675774</v>
+        <v>34.55805631675772</v>
       </c>
       <c r="D7" t="n">
-        <v>34.55805631675774</v>
+        <v>34.55805631675772</v>
       </c>
       <c r="E7" t="n">
-        <v>34.55805631675774</v>
+        <v>34.55805631675772</v>
       </c>
       <c r="F7" t="n">
-        <v>34.55805631675774</v>
+        <v>34.55805631675772</v>
       </c>
       <c r="G7" t="n">
-        <v>34.55805631675774</v>
+        <v>34.55805631675772</v>
       </c>
       <c r="H7" t="n">
-        <v>34.55805631675774</v>
+        <v>34.55805631675772</v>
       </c>
       <c r="I7" t="n">
-        <v>34.55805631675774</v>
+        <v>34.55805631675772</v>
       </c>
       <c r="J7" t="n">
-        <v>34.55805631675774</v>
+        <v>34.55805631675772</v>
       </c>
       <c r="K7" t="n">
-        <v>64.24066662574712</v>
+        <v>64.24066662574705</v>
       </c>
       <c r="L7" t="n">
-        <v>132.129986158412</v>
+        <v>132.1299861584118</v>
       </c>
       <c r="M7" t="n">
-        <v>206.9680378347978</v>
+        <v>206.9680378347977</v>
       </c>
       <c r="N7" t="n">
-        <v>287.8841338195375</v>
+        <v>287.8841338195373</v>
       </c>
       <c r="O7" t="n">
-        <v>342.3101561934727</v>
+        <v>342.3101561934724</v>
       </c>
       <c r="P7" t="n">
-        <v>369.8190495858016</v>
+        <v>369.8190495858013</v>
       </c>
       <c r="Q7" t="n">
-        <v>369.8190495858016</v>
+        <v>369.8190495858013</v>
       </c>
       <c r="R7" t="n">
-        <v>369.8190495858016</v>
+        <v>369.8190495858013</v>
       </c>
       <c r="S7" t="n">
-        <v>369.8190495858016</v>
+        <v>369.8190495858013</v>
       </c>
       <c r="T7" t="n">
-        <v>369.8190495858016</v>
+        <v>369.8190495858013</v>
       </c>
       <c r="U7" t="n">
-        <v>369.8190495858016</v>
+        <v>80.68330868548372</v>
       </c>
       <c r="V7" t="n">
-        <v>369.8190495858016</v>
+        <v>34.55805631675772</v>
       </c>
       <c r="W7" t="n">
-        <v>255.3506354602878</v>
+        <v>34.55805631675772</v>
       </c>
       <c r="X7" t="n">
-        <v>255.3506354602878</v>
+        <v>34.55805631675772</v>
       </c>
       <c r="Y7" t="n">
-        <v>34.55805631675774</v>
+        <v>34.55805631675772</v>
       </c>
     </row>
     <row r="8">
@@ -4778,7 +4778,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1579.362210729296</v>
+        <v>1314.539332743266</v>
       </c>
       <c r="C8" t="n">
         <v>1210.399693788884</v>
@@ -4790,7 +4790,7 @@
         <v>466.3457425838893</v>
       </c>
       <c r="F8" t="n">
-        <v>55.35983779428172</v>
+        <v>459.4002418346858</v>
       </c>
       <c r="G8" t="n">
         <v>43.36919653809306</v>
@@ -4832,22 +4832,22 @@
         <v>2168.459826904653</v>
       </c>
       <c r="T8" t="n">
-        <v>2168.459826904653</v>
+        <v>1958.285829056568</v>
       </c>
       <c r="U8" t="n">
-        <v>1965.962050793417</v>
+        <v>1704.678664719077</v>
       </c>
       <c r="V8" t="n">
-        <v>1965.962050793417</v>
+        <v>1704.678664719077</v>
       </c>
       <c r="W8" t="n">
-        <v>1965.962050793417</v>
+        <v>1704.678664719077</v>
       </c>
       <c r="X8" t="n">
-        <v>1965.962050793417</v>
+        <v>1704.678664719077</v>
       </c>
       <c r="Y8" t="n">
-        <v>1965.962050793417</v>
+        <v>1314.539332743266</v>
       </c>
     </row>
     <row r="9">
@@ -4857,22 +4857,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>672.5286484590418</v>
+        <v>583.8724219208507</v>
       </c>
       <c r="C9" t="n">
-        <v>498.0756191779149</v>
+        <v>583.8724219208507</v>
       </c>
       <c r="D9" t="n">
-        <v>349.1412095166636</v>
+        <v>434.9380122595995</v>
       </c>
       <c r="E9" t="n">
-        <v>189.9037545112081</v>
+        <v>275.700557254144</v>
       </c>
       <c r="F9" t="n">
-        <v>43.36919653809306</v>
+        <v>275.700557254144</v>
       </c>
       <c r="G9" t="n">
-        <v>43.36919653809306</v>
+        <v>138.8245634692599</v>
       </c>
       <c r="H9" t="n">
         <v>43.36919653809306</v>
@@ -4905,28 +4905,28 @@
         <v>1766.227047333487</v>
       </c>
       <c r="R9" t="n">
-        <v>1745.745249409541</v>
+        <v>1734.238298972664</v>
       </c>
       <c r="S9" t="n">
-        <v>1745.745249409541</v>
+        <v>1683.584007377306</v>
       </c>
       <c r="T9" t="n">
-        <v>1745.745249409541</v>
+        <v>1488.873685851282</v>
       </c>
       <c r="U9" t="n">
-        <v>1745.745249409541</v>
+        <v>1488.873685851282</v>
       </c>
       <c r="V9" t="n">
-        <v>1510.593141177798</v>
+        <v>1253.721577619539</v>
       </c>
       <c r="W9" t="n">
-        <v>1256.355784449597</v>
+        <v>999.4842208913374</v>
       </c>
       <c r="X9" t="n">
-        <v>1048.504284244064</v>
+        <v>791.6327206858045</v>
       </c>
       <c r="Y9" t="n">
-        <v>840.7439854791098</v>
+        <v>583.8724219208507</v>
       </c>
     </row>
     <row r="10">
@@ -4936,10 +4936,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>43.36919653809306</v>
+        <v>99.1756092975578</v>
       </c>
       <c r="C10" t="n">
-        <v>43.36919653809306</v>
+        <v>99.1756092975578</v>
       </c>
       <c r="D10" t="n">
         <v>43.36919653809306</v>
@@ -4981,31 +4981,31 @@
         <v>520.2893470405991</v>
       </c>
       <c r="Q10" t="n">
-        <v>520.2893470405991</v>
+        <v>497.4664265514521</v>
       </c>
       <c r="R10" t="n">
-        <v>520.2893470405991</v>
+        <v>388.3019303235343</v>
       </c>
       <c r="S10" t="n">
-        <v>520.2893470405991</v>
+        <v>388.3019303235343</v>
       </c>
       <c r="T10" t="n">
-        <v>520.2893470405991</v>
+        <v>388.3019303235343</v>
       </c>
       <c r="U10" t="n">
-        <v>520.2893470405991</v>
+        <v>99.1756092975578</v>
       </c>
       <c r="V10" t="n">
-        <v>265.6048588347122</v>
+        <v>99.1756092975578</v>
       </c>
       <c r="W10" t="n">
-        <v>265.6048588347122</v>
+        <v>99.1756092975578</v>
       </c>
       <c r="X10" t="n">
-        <v>43.36919653809306</v>
+        <v>99.1756092975578</v>
       </c>
       <c r="Y10" t="n">
-        <v>43.36919653809306</v>
+        <v>99.1756092975578</v>
       </c>
     </row>
     <row r="11">
@@ -5018,7 +5018,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5033,25 +5033,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075798</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
         <v>3640.422291068009</v>
@@ -5060,19 +5060,19 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
         <v>3820.749612123003</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,28 +5112,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N12" t="n">
-        <v>2297.690135143765</v>
+        <v>1468.439756756785</v>
       </c>
       <c r="O12" t="n">
-        <v>2319.799627685893</v>
+        <v>2020.349486996072</v>
       </c>
       <c r="P12" t="n">
         <v>2319.799627685893</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>788.0191461778176</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="C13" t="n">
-        <v>788.0191461778176</v>
+        <v>526.5658826424045</v>
       </c>
       <c r="D13" t="n">
-        <v>637.9025067654818</v>
+        <v>526.5658826424045</v>
       </c>
       <c r="E13" t="n">
-        <v>489.9894131830887</v>
+        <v>526.5658826424045</v>
       </c>
       <c r="F13" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000582</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782958</v>
@@ -5224,25 +5224,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2289.579626095074</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2069.978161118015</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1780.902934462213</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1526.218446256326</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1236.801276219365</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>1008.811725321348</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y13" t="n">
-        <v>788.0191461778176</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="14">
@@ -5252,34 +5252,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5288,40 +5288,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,31 +5349,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M15" t="n">
-        <v>1373.553594266881</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>874.8686257536381</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C16" t="n">
-        <v>705.9324428257312</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D16" t="n">
-        <v>555.8158034133954</v>
+        <v>261.8464821474266</v>
       </c>
       <c r="E16" t="n">
-        <v>407.9027098310023</v>
+        <v>261.8464821474266</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0127623330919</v>
+        <v>261.8464821474266</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797186</v>
+        <v>94.65038286230657</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>2338.476105524075</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>2049.400878868273</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1794.716390662386</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1505.299220625425</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>1277.309669727408</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y16" t="n">
-        <v>1056.517090583878</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="17">
@@ -5492,7 +5492,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5501,7 +5501,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5510,16 +5510,16 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
         <v>2206.558663014779</v>
@@ -5528,7 +5528,7 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694708</v>
@@ -5540,13 +5540,13 @@
         <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
         <v>3820.749612123003</v>
@@ -5598,22 +5598,22 @@
         <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>579.1554649516144</v>
+        <v>634.5603720565524</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969303</v>
+        <v>1231.938859683104</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951537</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190824</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400717</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C19" t="n">
-        <v>408.925855915485</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D19" t="n">
-        <v>408.925855915485</v>
+        <v>388.6197041282754</v>
       </c>
       <c r="E19" t="n">
-        <v>261.0127623330919</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G19" t="n">
         <v>93.81666304797189</v>
@@ -5695,28 +5695,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138415</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703114</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5823,19 +5823,19 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K21" t="n">
-        <v>245.2306927803937</v>
+        <v>184.7035232280589</v>
       </c>
       <c r="L21" t="n">
-        <v>245.2306927803937</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M21" t="n">
         <v>680.0291294438176</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>577.8620388433919</v>
       </c>
       <c r="C22" t="n">
-        <v>513.8536007400712</v>
+        <v>408.925855915485</v>
       </c>
       <c r="D22" t="n">
-        <v>484.8112968429803</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5938,22 +5938,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2041.469518613829</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1752.394291958027</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1497.70980375214</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1208.292633715179</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>980.3030828171618</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>759.5105036736317</v>
       </c>
     </row>
     <row r="23">
@@ -5984,22 +5984,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6069,19 +6069,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438176</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P24" t="n">
         <v>2283.159972732779</v>
@@ -6130,13 +6130,13 @@
         <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6230,13 +6230,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6245,7 +6245,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6309,22 +6309,22 @@
         <v>427.7414352191925</v>
       </c>
       <c r="L27" t="n">
-        <v>923.0670414349511</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M27" t="n">
-        <v>1520.445529061503</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N27" t="n">
-        <v>2148.04349261611</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6440,7 +6440,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004713</v>
@@ -6455,19 +6455,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075802</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
         <v>2206.558663014778</v>
@@ -6482,19 +6482,19 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V29" t="n">
         <v>3820.749612123003</v>
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797186</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797186</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M30" t="n">
-        <v>691.1951506745237</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N30" t="n">
-        <v>1318.79311422913</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O30" t="n">
-        <v>1870.702844468417</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P30" t="n">
-        <v>2294.325993963485</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q30" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C31" t="n">
-        <v>484.8112968429802</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D31" t="n">
-        <v>484.8112968429802</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429802</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429802</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6689,28 +6689,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6719,28 +6719,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6771,34 +6771,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797186</v>
+        <v>175.8744207939072</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797186</v>
+        <v>175.8744207939072</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797186</v>
+        <v>671.2000270096659</v>
       </c>
       <c r="M33" t="n">
-        <v>691.1951506745237</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N33" t="n">
-        <v>1318.79311422913</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O33" t="n">
-        <v>1870.702844468417</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P33" t="n">
-        <v>2294.325993963485</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q33" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>484.8112968429802</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E34" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6880,28 +6880,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2336.956424518383</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6911,34 +6911,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6950,7 +6950,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6962,25 +6962,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N36" t="n">
-        <v>2297.690135143765</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>2072.35525930079</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>802.9288273958734</v>
+        <v>847.644273983533</v>
       </c>
       <c r="C37" t="n">
-        <v>633.9926444679666</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D37" t="n">
-        <v>483.8760050556308</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E37" t="n">
-        <v>335.9629114732377</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F37" t="n">
-        <v>189.0729639753273</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G37" t="n">
-        <v>189.0729639753273</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7126,19 +7126,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1722.776592304621</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W37" t="n">
-        <v>1433.359422267661</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X37" t="n">
-        <v>1205.369871369643</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y37" t="n">
-        <v>984.5772922261132</v>
+        <v>1029.292738813773</v>
       </c>
     </row>
     <row r="38">
@@ -7148,19 +7148,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7178,46 +7178,46 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7248,31 +7248,31 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="K39" t="n">
-        <v>280.8495004245706</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L39" t="n">
-        <v>776.1751066403293</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M39" t="n">
-        <v>1373.553594266881</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N39" t="n">
-        <v>2001.151557821488</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797186</v>
@@ -7360,22 +7360,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="41">
@@ -7394,25 +7394,25 @@
         <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168602</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362674</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797186</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111711</v>
       </c>
       <c r="K41" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332386</v>
@@ -7427,7 +7427,7 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q41" t="n">
         <v>4562.265728852254</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797186</v>
+        <v>315.9123021921482</v>
       </c>
       <c r="M42" t="n">
-        <v>691.1951506745237</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="N42" t="n">
-        <v>1318.79311422913</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O42" t="n">
-        <v>1870.702844468417</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P42" t="n">
-        <v>2294.325993963485</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q42" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F43" t="n">
-        <v>411.9631215597619</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G43" t="n">
-        <v>244.7670222746419</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H43" t="n">
-        <v>103.0551911168399</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797186</v>
@@ -7591,28 +7591,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7628,70 +7628,70 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615995</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7719,34 +7719,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756265</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>577.388077746847</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589157</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N45" t="n">
-        <v>2297.690135143764</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>866.4638174991043</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908938</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908938</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908938</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
@@ -7828,28 +7828,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2035.268256189238</v>
+        <v>2040.654127232581</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1751.578900576778</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1496.894412370891</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1496.894412370891</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>1268.904861472874</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>1048.112282329344</v>
       </c>
     </row>
   </sheetData>
@@ -23416,22 +23416,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>104.0840080815012</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23464,7 +23464,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>91.59190980143096</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23659,19 +23659,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>139.4693302300325</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>110.0033420516644</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23890,19 +23890,19 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>63.36835372228708</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>125.5054897610402</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24127,13 +24127,13 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>119.8635921600923</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24142,10 +24142,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24178,7 +24178,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>63.36835372228751</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24370,7 +24370,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>63.36835372228749</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24379,7 +24379,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24598,25 +24598,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>46.45968844823096</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>57.22910392194223</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24835,25 +24835,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>138.4949402405077</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>112.4047682534901</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -25078,22 +25078,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,10 +25120,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>72.11969353038577</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25312,7 +25312,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25324,10 +25324,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>45.99097492814199</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25366,10 +25366,10 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25378,7 +25378,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>78.31512318719908</v>
       </c>
     </row>
     <row r="38">
@@ -25552,19 +25552,19 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>57.2291039219422</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25600,7 +25600,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>46.45968844823099</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25795,16 +25795,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>143.6212754172151</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>72.11969353038612</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -26029,10 +26029,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26041,7 +26041,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,13 +26068,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>57.22910392194222</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>62.56111625485153</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26083,7 +26083,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26314,43 +26314,43 @@
         <v>738937.5928778551</v>
       </c>
       <c r="C2" t="n">
-        <v>738937.5928778552</v>
+        <v>738937.5928778548</v>
       </c>
       <c r="D2" t="n">
-        <v>738937.5928778552</v>
+        <v>738937.5928778549</v>
       </c>
       <c r="E2" t="n">
         <v>726431.9397210054</v>
       </c>
       <c r="F2" t="n">
-        <v>726431.9397210052</v>
+        <v>726431.9397210053</v>
       </c>
       <c r="G2" t="n">
+        <v>726431.9397210054</v>
+      </c>
+      <c r="H2" t="n">
+        <v>726431.9397210053</v>
+      </c>
+      <c r="I2" t="n">
         <v>726431.9397210049</v>
-      </c>
-      <c r="H2" t="n">
-        <v>726431.9397210052</v>
-      </c>
-      <c r="I2" t="n">
-        <v>726431.939721005</v>
       </c>
       <c r="J2" t="n">
         <v>726431.9397210053</v>
       </c>
       <c r="K2" t="n">
+        <v>726431.9397210053</v>
+      </c>
+      <c r="L2" t="n">
         <v>726431.9397210054</v>
-      </c>
-      <c r="L2" t="n">
-        <v>726431.9397210053</v>
       </c>
       <c r="M2" t="n">
         <v>726431.9397210054</v>
       </c>
       <c r="N2" t="n">
-        <v>726431.9397210052</v>
+        <v>726431.9397210053</v>
       </c>
       <c r="O2" t="n">
-        <v>726431.9397210053</v>
+        <v>726431.9397210055</v>
       </c>
       <c r="P2" t="n">
         <v>726431.9397210053</v>
@@ -26366,19 +26366,19 @@
         <v>591356.9025208456</v>
       </c>
       <c r="C3" t="n">
-        <v>270592.362025313</v>
+        <v>270592.3620253127</v>
       </c>
       <c r="D3" t="n">
-        <v>115410.0540231921</v>
+        <v>115410.0540231924</v>
       </c>
       <c r="E3" t="n">
-        <v>601443.2075742653</v>
+        <v>601443.2075742654</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26390,13 +26390,13 @@
         <v>49064.94472854465</v>
       </c>
       <c r="K3" t="n">
-        <v>62913.63765881977</v>
+        <v>62913.63765881976</v>
       </c>
       <c r="L3" t="n">
-        <v>27875.25362197471</v>
+        <v>27875.25362197477</v>
       </c>
       <c r="M3" t="n">
-        <v>157146.3805515981</v>
+        <v>157146.380551598</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,22 +26418,22 @@
         <v>278536.5648341298</v>
       </c>
       <c r="C4" t="n">
-        <v>206604.422926346</v>
+        <v>206604.4229263461</v>
       </c>
       <c r="D4" t="n">
         <v>174202.9900888977</v>
       </c>
       <c r="E4" t="n">
-        <v>16046.58397189194</v>
+        <v>16046.58397189202</v>
       </c>
       <c r="F4" t="n">
-        <v>16046.58397189204</v>
+        <v>16046.58397189196</v>
       </c>
       <c r="G4" t="n">
-        <v>16046.58397189193</v>
+        <v>16046.58397189196</v>
       </c>
       <c r="H4" t="n">
-        <v>16046.58397189196</v>
+        <v>16046.58397189202</v>
       </c>
       <c r="I4" t="n">
         <v>16046.583971892</v>
@@ -26442,22 +26442,22 @@
         <v>16046.58397189197</v>
       </c>
       <c r="K4" t="n">
+        <v>16046.58397189193</v>
+      </c>
+      <c r="L4" t="n">
+        <v>16046.58397189197</v>
+      </c>
+      <c r="M4" t="n">
         <v>16046.583971892</v>
       </c>
-      <c r="L4" t="n">
-        <v>16046.58397189203</v>
-      </c>
-      <c r="M4" t="n">
-        <v>16046.58397189196</v>
-      </c>
       <c r="N4" t="n">
+        <v>16046.583971892</v>
+      </c>
+      <c r="O4" t="n">
         <v>16046.58397189204</v>
       </c>
-      <c r="O4" t="n">
-        <v>16046.58397189201</v>
-      </c>
       <c r="P4" t="n">
-        <v>16046.58397189207</v>
+        <v>16046.583971892</v>
       </c>
     </row>
     <row r="5">
@@ -26470,7 +26470,7 @@
         <v>56985.80041161359</v>
       </c>
       <c r="C5" t="n">
-        <v>76435.73471936824</v>
+        <v>76435.73471936822</v>
       </c>
       <c r="D5" t="n">
         <v>85199.08185587224</v>
@@ -26522,46 +26522,46 @@
         <v>-187941.674888734</v>
       </c>
       <c r="C6" t="n">
-        <v>185305.073206828</v>
+        <v>185305.0732068278</v>
       </c>
       <c r="D6" t="n">
-        <v>364125.4669098931</v>
+        <v>364125.4669098926</v>
       </c>
       <c r="E6" t="n">
-        <v>7819.618350941018</v>
+        <v>7784.880425505122</v>
       </c>
       <c r="F6" t="n">
-        <v>609262.8259252061</v>
+        <v>609228.0879997707</v>
       </c>
       <c r="G6" t="n">
-        <v>609262.8259252056</v>
+        <v>609228.0879997707</v>
       </c>
       <c r="H6" t="n">
-        <v>609262.8259252062</v>
+        <v>609228.0879997709</v>
       </c>
       <c r="I6" t="n">
-        <v>609262.825925206</v>
+        <v>609228.0879997702</v>
       </c>
       <c r="J6" t="n">
-        <v>560197.8811966615</v>
+        <v>560163.1432712259</v>
       </c>
       <c r="K6" t="n">
-        <v>546349.1882663865</v>
+        <v>546314.4503409509</v>
       </c>
       <c r="L6" t="n">
-        <v>581387.5723032315</v>
+        <v>581352.8343777959</v>
       </c>
       <c r="M6" t="n">
-        <v>452116.4453736083</v>
+        <v>452081.7074481726</v>
       </c>
       <c r="N6" t="n">
-        <v>609262.8259252061</v>
+        <v>609228.0879997705</v>
       </c>
       <c r="O6" t="n">
-        <v>609262.8259252062</v>
+        <v>609228.0879997708</v>
       </c>
       <c r="P6" t="n">
-        <v>609262.8259252062</v>
+        <v>609228.0879997705</v>
       </c>
     </row>
   </sheetData>
@@ -26692,19 +26692,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>3.318586784683342e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>3.318586784683342e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>3.318586784683342e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>3.318586784683342e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>3.318586784683342e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26716,13 +26716,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>2.031580523222125e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26738,7 +26738,7 @@
         <v>548.4699409129048</v>
       </c>
       <c r="C3" t="n">
-        <v>758.8996292950623</v>
+        <v>758.899629295062</v>
       </c>
       <c r="D3" t="n">
         <v>853.7106645376841</v>
@@ -26790,16 +26790,16 @@
         <v>187.5255871663201</v>
       </c>
       <c r="C4" t="n">
-        <v>431.9757039594717</v>
+        <v>431.9757039594715</v>
       </c>
       <c r="D4" t="n">
         <v>542.1149567261632</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099649</v>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>-3.218023548783847e-14</v>
+        <v>3.318586784683342e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26938,7 +26938,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>5.249604072005972e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26960,10 +26960,10 @@
         <v>548.4699409129048</v>
       </c>
       <c r="C3" t="n">
-        <v>210.4296883821575</v>
+        <v>210.4296883821572</v>
       </c>
       <c r="D3" t="n">
-        <v>94.81103524262187</v>
+        <v>94.8110352426221</v>
       </c>
       <c r="E3" t="n">
         <v>514.2648358039899</v>
@@ -26972,10 +26972,10 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>-2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27012,13 +27012,13 @@
         <v>187.5255871663201</v>
       </c>
       <c r="C4" t="n">
-        <v>244.4501167931516</v>
+        <v>244.4501167931514</v>
       </c>
       <c r="D4" t="n">
-        <v>110.1392527666915</v>
+        <v>110.1392527666917</v>
       </c>
       <c r="E4" t="n">
-        <v>630.5933313734852</v>
+        <v>630.5933313734854</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27039,10 +27039,10 @@
         <v>244.4501167931514</v>
       </c>
       <c r="L4" t="n">
-        <v>110.1392527666915</v>
+        <v>110.1392527666917</v>
       </c>
       <c r="M4" t="n">
-        <v>630.5933313734854</v>
+        <v>630.5933313734852</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.318586784683342e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27258,13 +27258,13 @@
         <v>187.5255871663201</v>
       </c>
       <c r="K4" t="n">
-        <v>244.4501167931516</v>
+        <v>244.4501167931514</v>
       </c>
       <c r="L4" t="n">
-        <v>110.1392527666915</v>
+        <v>110.1392527666917</v>
       </c>
       <c r="M4" t="n">
-        <v>630.5933313734852</v>
+        <v>630.5933313734854</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27388,16 +27388,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>367.1748256855915</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>225.572246063738</v>
+        <v>225.5722460637379</v>
       </c>
       <c r="H2" t="n">
-        <v>129.3682389399022</v>
+        <v>316.8938261062223</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,19 +27424,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>77.08171901666373</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>158.7758131900531</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>213.4438810562068</v>
       </c>
       <c r="U2" t="n">
-        <v>63.64367339871024</v>
+        <v>141.2047141710437</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>140.2266713038148</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27461,13 +27461,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>136.1637893657753</v>
@@ -27476,7 +27476,7 @@
         <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>58.90455890409147</v>
       </c>
       <c r="J3" t="n">
         <v>15.37922103265835</v>
@@ -27503,22 +27503,22 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>26.45601325923895</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
-        <v>195.4095977920012</v>
+        <v>7.8840106256811</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8637684100909</v>
+        <v>38.3381812437708</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>144.1382534352837</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -27549,7 +27549,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>114.7859889482795</v>
+        <v>167.0019352027142</v>
       </c>
       <c r="H4" t="n">
         <v>153.4336708318196</v>
@@ -27576,7 +27576,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>18.10760906709382</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>68.68604055159722</v>
@@ -27588,7 +27588,7 @@
         <v>206.7802557954962</v>
       </c>
       <c r="T4" t="n">
-        <v>223.7196734901001</v>
+        <v>189.6113363027592</v>
       </c>
       <c r="U4" t="n">
         <v>286.2650814934503</v>
@@ -27616,25 +27616,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>200.5719613483188</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>308.2302560714735</v>
       </c>
       <c r="I5" t="n">
-        <v>92.85788772760031</v>
+        <v>92.85788772760034</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,19 +27661,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>23.94240680425892</v>
+        <v>23.94240680425898</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>139.4987618372555</v>
       </c>
       <c r="T5" t="n">
         <v>209.7407415149288</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1015846853496</v>
       </c>
       <c r="V5" t="n">
-        <v>230.8003242210522</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27682,7 +27682,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27692,28 +27692,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>135.7111670171797</v>
       </c>
       <c r="H6" t="n">
-        <v>96.4703783524613</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>43.3208508493751</v>
+        <v>43.32085084937511</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,28 +27740,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>44.33060630074786</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>141.3629830843606</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>193.5852120974427</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>58.753385640913</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>161.177511078806</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27795,7 +27795,7 @@
         <v>114.2957212599129</v>
       </c>
       <c r="J7" t="n">
-        <v>30.24193919304041</v>
+        <v>30.24193919304044</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,7 +27816,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>36.91115760589145</v>
+        <v>36.91115760589147</v>
       </c>
       <c r="R7" t="n">
         <v>115.7603165166223</v>
@@ -27828,19 +27828,19 @@
         <v>222.0983299894507</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2443834913144</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>206.4736434787893</v>
       </c>
       <c r="W7" t="n">
-        <v>173.1992683523324</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,10 +27850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>262.1746492061698</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27862,10 +27862,10 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>304.326804756183</v>
@@ -27904,10 +27904,10 @@
         <v>130.8133087092504</v>
       </c>
       <c r="T8" t="n">
-        <v>208.0722578696039</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>50.59829434399273</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27919,7 +27919,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -27929,10 +27929,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -27941,13 +27941,13 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>135.5072338470353</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>94.50081326185514</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>36.29946757904885</v>
@@ -27977,13 +27977,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>11.39188093250797</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>137.5750138932992</v>
+        <v>87.42726521389434</v>
       </c>
       <c r="T9" t="n">
-        <v>192.7632183107638</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>225.8205739680685</v>
@@ -28014,7 +28014,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>93.36712438634225</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28053,10 +28053,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>22.59469128425553</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>108.0728512656386</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>197.1876907596159</v>
@@ -28065,16 +28065,16 @@
         <v>221.3678187343026</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2350578157167</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>5.696349715384201</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28093,7 +28093,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>-7.394985773160066e-13</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -28156,7 +28156,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>9.285372470912988e-13</v>
       </c>
     </row>
     <row r="12">
@@ -28339,10 +28339,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>-7.553251631224171e-14</v>
       </c>
       <c r="H14" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28612,7 +28612,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>-9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>9.285372470912988e-13</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -28852,7 +28852,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>-3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -29515,7 +29515,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -29563,7 +29563,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -29803,7 +29803,7 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30037,7 +30037,7 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>-3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -30226,7 +30226,7 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30472,10 +30472,10 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H41" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -30694,7 +30694,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2.103206497849897e-12</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -30709,7 +30709,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -31276,43 +31276,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.050852781085675</v>
+        <v>3.050852781085674</v>
       </c>
       <c r="H5" t="n">
-        <v>31.24454604429368</v>
+        <v>31.24454604429367</v>
       </c>
       <c r="I5" t="n">
         <v>117.6180018428056</v>
       </c>
       <c r="J5" t="n">
-        <v>258.9373162286706</v>
+        <v>258.9373162286705</v>
       </c>
       <c r="K5" t="n">
-        <v>388.0799144520273</v>
+        <v>388.0799144520271</v>
       </c>
       <c r="L5" t="n">
-        <v>481.4474502511781</v>
+        <v>481.4474502511779</v>
       </c>
       <c r="M5" t="n">
-        <v>535.7030533968104</v>
+        <v>535.7030533968102</v>
       </c>
       <c r="N5" t="n">
-        <v>544.3712888610702</v>
+        <v>544.37128886107</v>
       </c>
       <c r="O5" t="n">
-        <v>514.0343715191494</v>
+        <v>514.0343715191493</v>
       </c>
       <c r="P5" t="n">
-        <v>438.7164434860968</v>
+        <v>438.7164434860966</v>
       </c>
       <c r="Q5" t="n">
         <v>329.4577782634659</v>
       </c>
       <c r="R5" t="n">
-        <v>191.6431310098732</v>
+        <v>191.6431310098731</v>
       </c>
       <c r="S5" t="n">
-        <v>69.5213077489899</v>
+        <v>69.52130774898987</v>
       </c>
       <c r="T5" t="n">
         <v>13.35510804920255</v>
@@ -31355,46 +31355,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.632350146030889</v>
+        <v>1.632350146030888</v>
       </c>
       <c r="H6" t="n">
         <v>15.76506588403516</v>
       </c>
       <c r="I6" t="n">
-        <v>56.2015291506249</v>
+        <v>56.20152915062489</v>
       </c>
       <c r="J6" t="n">
-        <v>154.2212916475938</v>
+        <v>154.2212916475937</v>
       </c>
       <c r="K6" t="n">
-        <v>263.5887514316633</v>
+        <v>263.5887514316632</v>
       </c>
       <c r="L6" t="n">
-        <v>354.4276051721893</v>
+        <v>354.4276051721891</v>
       </c>
       <c r="M6" t="n">
-        <v>413.6002979658089</v>
+        <v>413.6002979658087</v>
       </c>
       <c r="N6" t="n">
-        <v>424.547067146867</v>
+        <v>424.5470671468668</v>
       </c>
       <c r="O6" t="n">
-        <v>388.3776244374457</v>
+        <v>388.3776244374455</v>
       </c>
       <c r="P6" t="n">
-        <v>311.7072835872493</v>
+        <v>311.7072835872492</v>
       </c>
       <c r="Q6" t="n">
-        <v>208.36806425475</v>
+        <v>208.3680642547499</v>
       </c>
       <c r="R6" t="n">
         <v>101.3488976632161</v>
       </c>
       <c r="S6" t="n">
-        <v>30.32018801947723</v>
+        <v>30.32018801947722</v>
       </c>
       <c r="T6" t="n">
-        <v>6.579516597378887</v>
+        <v>6.579516597378885</v>
       </c>
       <c r="U6" t="n">
         <v>0.1073914569757164</v>
@@ -31437,19 +31437,19 @@
         <v>1.368507528236997</v>
       </c>
       <c r="H7" t="n">
-        <v>12.16727602377986</v>
+        <v>12.16727602377985</v>
       </c>
       <c r="I7" t="n">
-        <v>41.15475366734535</v>
+        <v>41.15475366734534</v>
       </c>
       <c r="J7" t="n">
-        <v>96.7534822463557</v>
+        <v>96.75348224635567</v>
       </c>
       <c r="K7" t="n">
         <v>158.9956928260802</v>
       </c>
       <c r="L7" t="n">
-        <v>203.4597465162533</v>
+        <v>203.4597465162532</v>
       </c>
       <c r="M7" t="n">
         <v>214.519775539914</v>
@@ -31461,22 +31461,22 @@
         <v>193.4323186275349</v>
       </c>
       <c r="P7" t="n">
-        <v>165.5147650515001</v>
+        <v>165.5147650515</v>
       </c>
       <c r="Q7" t="n">
         <v>114.5938440235544</v>
       </c>
       <c r="R7" t="n">
-        <v>61.53307486054716</v>
+        <v>61.53307486054714</v>
       </c>
       <c r="S7" t="n">
-        <v>23.84935392391203</v>
+        <v>23.84935392391202</v>
       </c>
       <c r="T7" t="n">
-        <v>5.847259438830806</v>
+        <v>5.847259438830804</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07464586517656358</v>
+        <v>0.07464586517656356</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31841,10 +31841,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
         <v>745.5466476862122</v>
@@ -31853,10 +31853,10 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>164.9290651940687</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>436.4492970000073</v>
       </c>
       <c r="Q12" t="n">
         <v>375.5996128485291</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>446.0127311990643</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>718.5832682008314</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32318,16 +32318,16 @@
         <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>194.5189324111248</v>
       </c>
       <c r="M18" t="n">
-        <v>281.0363767960748</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
         <v>561.8765786214699</v>
@@ -32336,7 +32336,7 @@
         <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742439</v>
@@ -32546,19 +32546,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>229.6463482471742</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>581.3243739860829</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
@@ -32789,13 +32789,13 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>734.2678383622665</v>
+        <v>324.5433647340733</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
@@ -32804,7 +32804,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>375.599612848529</v>
@@ -33029,25 +33029,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>396.970088694367</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33263,19 +33263,19 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>491.597732526532</v>
       </c>
       <c r="P30" t="n">
         <v>561.8765786214698</v>
@@ -33284,7 +33284,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33497,13 +33497,13 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>209.7242506524599</v>
       </c>
       <c r="K33" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33512,7 +33512,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
         <v>561.8765786214698</v>
@@ -33521,7 +33521,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33734,7 +33734,7 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422585</v>
@@ -33746,19 +33746,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>346.9084613860368</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33898,7 +33898,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162557</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
         <v>965.6463440175675</v>
@@ -33968,13 +33968,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
@@ -33986,16 +33986,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>268.6704608606964</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34129,7 +34129,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663279</v>
       </c>
       <c r="K41" t="n">
         <v>699.5441750817575</v>
@@ -34205,16 +34205,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>209.9499448422525</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34229,10 +34229,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34357,37 +34357,37 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
         <v>345.4516222043725</v>
@@ -34396,10 +34396,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34445,37 +34445,37 @@
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420754</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>400.5469039565771</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>285.8867128925984</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
         <v>0.1935814387275954</v>
@@ -34521,28 +34521,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P46" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
         <v>206.5643005515927</v>
@@ -34551,7 +34551,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
@@ -34933,25 +34933,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>77.89141170198428</v>
+        <v>77.89141170198417</v>
       </c>
       <c r="K5" t="n">
-        <v>167.9900634070467</v>
+        <v>167.9900634070466</v>
       </c>
       <c r="L5" t="n">
-        <v>245.6810352811909</v>
+        <v>245.6810352811907</v>
       </c>
       <c r="M5" t="n">
-        <v>305.3568201695377</v>
+        <v>305.3568201695375</v>
       </c>
       <c r="N5" t="n">
-        <v>314.9582252644793</v>
+        <v>314.958225264479</v>
       </c>
       <c r="O5" t="n">
-        <v>283.9361600974627</v>
+        <v>283.9361600974626</v>
       </c>
       <c r="P5" t="n">
-        <v>207.4834477308272</v>
+        <v>207.4834477308271</v>
       </c>
       <c r="Q5" t="n">
         <v>107.1520883890164</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>27.38366498092708</v>
+        <v>27.38366498092702</v>
       </c>
       <c r="K6" t="n">
-        <v>125.7473124573043</v>
+        <v>125.7473124573042</v>
       </c>
       <c r="L6" t="n">
-        <v>215.8732253923151</v>
+        <v>215.873225392315</v>
       </c>
       <c r="M6" t="n">
-        <v>271.4662640437905</v>
+        <v>271.4662640437904</v>
       </c>
       <c r="N6" t="n">
-        <v>293.2053550635337</v>
+        <v>293.2053550635335</v>
       </c>
       <c r="O6" t="n">
-        <v>245.7813799930012</v>
+        <v>245.7813799930011</v>
       </c>
       <c r="P6" t="n">
         <v>177.732876172919</v>
       </c>
       <c r="Q6" t="n">
-        <v>68.38629016872844</v>
+        <v>68.38629016872838</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,22 +35094,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>29.98243465554484</v>
+        <v>29.98243465554478</v>
       </c>
       <c r="L7" t="n">
-        <v>68.57507023501498</v>
+        <v>68.57507023501492</v>
       </c>
       <c r="M7" t="n">
-        <v>75.59399159230898</v>
+        <v>75.5939915923089</v>
       </c>
       <c r="N7" t="n">
-        <v>81.73343028761582</v>
+        <v>81.73343028761576</v>
       </c>
       <c r="O7" t="n">
-        <v>54.97578017569214</v>
+        <v>54.97578017569208</v>
       </c>
       <c r="P7" t="n">
-        <v>27.78676100235245</v>
+        <v>27.78676100235239</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35489,10 +35489,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
@@ -35501,10 +35501,10 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>22.33282074962425</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>302.474889585677</v>
       </c>
       <c r="Q12" t="n">
         <v>235.6178387625076</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>303.8786972770459</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>587.2415561174981</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35966,16 +35966,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>55.96455263125056</v>
       </c>
       <c r="M18" t="n">
-        <v>138.9023428740565</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>427.9021712071396</v>
@@ -35984,7 +35984,7 @@
         <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36194,19 +36194,19 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>91.80490927281524</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>439.1903400640646</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
@@ -36437,13 +36437,13 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>592.1338044402481</v>
+        <v>182.409330812055</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
@@ -36452,7 +36452,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>235.6178387625075</v>
@@ -36677,25 +36677,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>254.8360547723487</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36911,19 +36911,19 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>349.0014880820875</v>
       </c>
       <c r="P30" t="n">
         <v>427.9021712071395</v>
@@ -36932,7 +36932,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37145,13 +37145,13 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>82.88662398579324</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37160,7 +37160,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>427.9021712071395</v>
@@ -37169,7 +37169,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37382,7 +37382,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
@@ -37394,19 +37394,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>212.9340539717066</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37546,7 +37546,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462684</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
         <v>735.3001107902948</v>
@@ -37616,13 +37616,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
@@ -37634,16 +37634,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>134.6960534463662</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37777,7 +37777,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396416</v>
       </c>
       <c r="K41" t="n">
         <v>479.454324036777</v>
@@ -37853,16 +37853,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>71.39556506237828</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37877,10 +37877,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38011,31 +38011,31 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
         <v>129.8660843902404</v>
@@ -38093,31 +38093,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754087</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678995</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>257.9506595121327</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>151.9123054782682</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
         <v>264.3325884096349</v>
@@ -38181,19 +38181,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q46" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
